--- a/experiment/linear/ex9.1.10/Experimentos_Generador/ex9.1.10(Linear)__C_Stationarygenerator_alpha_zero.xlsx
+++ b/experiment/linear/ex9.1.10/Experimentos_Generador/ex9.1.10(Linear)__C_Stationarygenerator_alpha_zero.xlsx
@@ -66,67 +66,67 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>2.5 - 2x_1 + y_1 - y_2</t>
-  </si>
-  <si>
-    <t>-1.6700127099477178</t>
+    <t>5.35 - 2x_1 + y_1 - y_2</t>
+  </si>
+  <si>
+    <t>-2.8499999999999996</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.4913961945540344</t>
+    <t>0.73</t>
+  </si>
+  <si>
+    <t>8.4</t>
+  </si>
+  <si>
+    <t>8.8</t>
+  </si>
+  <si>
+    <t>2.1499999999999932 + x_1 - 3x_2 + y_2</t>
+  </si>
+  <si>
+    <t>-4.149999999999993</t>
+  </si>
+  <si>
+    <t>0.59</t>
+  </si>
+  <si>
+    <t>9.7</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>0.16350241423029066</t>
-  </si>
-  <si>
-    <t>-2 + x_1 - 3x_2 + y_2</t>
-  </si>
-  <si>
-    <t>0.6955939072173343</t>
-  </si>
-  <si>
-    <t>0.8882090831603455</t>
-  </si>
-  <si>
-    <t>0.5414740330848481</t>
-  </si>
-  <si>
-    <t>0.36759996476387</t>
-  </si>
-  <si>
-    <t>-y_1</t>
-  </si>
-  <si>
-    <t>-100.37656758184467</t>
+    <t>104.95 - y_1</t>
+  </si>
+  <si>
+    <t>-104.95</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.41356181709168294</t>
-  </si>
-  <si>
-    <t>0.8529467715442062</t>
-  </si>
-  <si>
-    <t>-y_2</t>
-  </si>
-  <si>
-    <t>-0.5122616766064048</t>
+    <t>0.87</t>
+  </si>
+  <si>
+    <t>2.8000000000000003</t>
+  </si>
+  <si>
+    <t>-3.5999999999999996 - y_2</t>
+  </si>
+  <si>
+    <t>-3.5999999999999996</t>
   </si>
   <si>
     <t>J_Ne_L0_v</t>
   </si>
   <si>
-    <t>0.07636940678826719</t>
-  </si>
-  <si>
-    <t>0.8333357620226659</t>
+    <t>0.08</t>
+  </si>
+  <si>
+    <t>6.8999999999999995</t>
   </si>
   <si>
     <t>x_1</t>
@@ -141,40 +141,40 @@
     <t>y_2</t>
   </si>
   <si>
-    <t>52.01715930759299</t>
-  </si>
-  <si>
-    <t>16.611275692327354</t>
-  </si>
-  <si>
-    <t>100.37656758184467</t>
-  </si>
-  <si>
-    <t>0.5122616766064048</t>
+    <t>53.35</t>
+  </si>
+  <si>
+    <t>19.7</t>
+  </si>
+  <si>
+    <t>104.95</t>
+  </si>
+  <si>
+    <t>3.5999999999999996</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>3.9221656225376487</t>
-  </si>
-  <si>
-    <t>-1.320443481818044</t>
+    <t>4.14</t>
+  </si>
+  <si>
+    <t>-0.78</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>1.4585259669151518</t>
-  </si>
-  <si>
-    <t>0.6244220992545442</t>
-  </si>
-  <si>
-    <t>-0.5</t>
-  </si>
-  <si>
-    <t>0.2918617289378178</t>
+    <t>9.100000000000001</t>
+  </si>
+  <si>
+    <t>28.099999999999998</t>
+  </si>
+  <si>
+    <t>-8.9</t>
+  </si>
+  <si>
+    <t>-1.299999999999999</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -665,7 +665,7 @@
         <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
         <v>26</v>
@@ -685,10 +685,10 @@
         <v>30</v>
       </c>
       <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
         <v>31</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/experiment/linear/ex9.1.10/Experimentos_Generador/ex9.1.10(Linear)__C_Stationarygenerator_alpha_zero.xlsx
+++ b/experiment/linear/ex9.1.10/Experimentos_Generador/ex9.1.10(Linear)__C_Stationarygenerator_alpha_zero.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
   <si>
     <t>Leader_Expr</t>
   </si>
@@ -66,67 +66,70 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>5.35 - 2x_1 + y_1 - y_2</t>
-  </si>
-  <si>
-    <t>-2.8499999999999996</t>
+    <t>1.7500000000000169 - 2x_1 + y_1 - y_2</t>
+  </si>
+  <si>
+    <t>0.7499999999999831</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.73</t>
-  </si>
-  <si>
-    <t>8.4</t>
-  </si>
-  <si>
-    <t>8.8</t>
-  </si>
-  <si>
-    <t>2.1499999999999932 + x_1 - 3x_2 + y_2</t>
-  </si>
-  <si>
-    <t>-4.149999999999993</t>
-  </si>
-  <si>
-    <t>0.59</t>
-  </si>
-  <si>
-    <t>9.7</t>
+    <t>0.77</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>104.95 - y_1</t>
-  </si>
-  <si>
-    <t>-104.95</t>
+    <t>6.1</t>
+  </si>
+  <si>
+    <t>6.549999999999994 + x_1 - 3x_2 + y_2</t>
+  </si>
+  <si>
+    <t>-8.549999999999994</t>
+  </si>
+  <si>
+    <t>0.46</t>
+  </si>
+  <si>
+    <t>6.8999999999999995</t>
+  </si>
+  <si>
+    <t>104.6 - y_1</t>
+  </si>
+  <si>
+    <t>-104.6</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.87</t>
-  </si>
-  <si>
-    <t>2.8000000000000003</t>
-  </si>
-  <si>
-    <t>-3.5999999999999996 - y_2</t>
-  </si>
-  <si>
-    <t>-3.5999999999999996</t>
+    <t>0.41</t>
+  </si>
+  <si>
+    <t>-5.5</t>
+  </si>
+  <si>
+    <t>-5.1</t>
+  </si>
+  <si>
+    <t>-2.05 - y_2</t>
+  </si>
+  <si>
+    <t>-2.05</t>
   </si>
   <si>
     <t>J_Ne_L0_v</t>
   </si>
   <si>
-    <t>0.08</t>
-  </si>
-  <si>
-    <t>6.8999999999999995</t>
+    <t>0.64</t>
+  </si>
+  <si>
+    <t>-9.8</t>
+  </si>
+  <si>
+    <t>-8.5</t>
   </si>
   <si>
     <t>x_1</t>
@@ -141,40 +144,40 @@
     <t>y_2</t>
   </si>
   <si>
-    <t>53.35</t>
+    <t>52.150000000000006</t>
+  </si>
+  <si>
+    <t>20.25</t>
+  </si>
+  <si>
+    <t>104.6</t>
+  </si>
+  <si>
+    <t>2.05</t>
+  </si>
+  <si>
+    <t>vec_bf</t>
+  </si>
+  <si>
+    <t>3.64</t>
+  </si>
+  <si>
+    <t>-0.050000000000000044</t>
+  </si>
+  <si>
+    <t>vec_BF</t>
+  </si>
+  <si>
+    <t>-4.8999999999999995</t>
   </si>
   <si>
     <t>19.7</t>
   </si>
   <si>
-    <t>104.95</t>
-  </si>
-  <si>
-    <t>3.5999999999999996</t>
-  </si>
-  <si>
-    <t>vec_bf</t>
-  </si>
-  <si>
-    <t>4.14</t>
-  </si>
-  <si>
-    <t>-0.78</t>
-  </si>
-  <si>
-    <t>vec_BF</t>
-  </si>
-  <si>
-    <t>9.100000000000001</t>
-  </si>
-  <si>
-    <t>28.099999999999998</t>
-  </si>
-  <si>
-    <t>-8.9</t>
-  </si>
-  <si>
-    <t>-1.299999999999999</t>
+    <t>-6.0</t>
+  </si>
+  <si>
+    <t>-16.7</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -648,24 +651,24 @@
         <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
       </c>
       <c r="F4" t="s">
         <v>26</v>
@@ -685,10 +688,10 @@
         <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -706,30 +709,30 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -747,17 +750,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -775,27 +778,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -813,7 +816,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:1">

--- a/experiment/linear/ex9.1.10/Experimentos_Generador/ex9.1.10(Linear)__C_Stationarygenerator_alpha_zero.xlsx
+++ b/experiment/linear/ex9.1.10/Experimentos_Generador/ex9.1.10(Linear)__C_Stationarygenerator_alpha_zero.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
   <si>
     <t>Leader_Expr</t>
   </si>
@@ -66,70 +66,58 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>1.7500000000000169 - 2x_1 + y_1 - y_2</t>
-  </si>
-  <si>
-    <t>0.7499999999999831</t>
+    <t>1.1000000000000056 - 2x_1 + y_1 - y_2</t>
+  </si>
+  <si>
+    <t>1.3999999999999944</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.77</t>
+    <t>0.92</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>6.1</t>
-  </si>
-  <si>
-    <t>6.549999999999994 + x_1 - 3x_2 + y_2</t>
-  </si>
-  <si>
-    <t>-8.549999999999994</t>
-  </si>
-  <si>
-    <t>0.46</t>
-  </si>
-  <si>
-    <t>6.8999999999999995</t>
-  </si>
-  <si>
-    <t>104.6 - y_1</t>
-  </si>
-  <si>
-    <t>-104.6</t>
+    <t>2.5499999999999927 + x_1 - 3x_2 + y_2</t>
+  </si>
+  <si>
+    <t>-4.549999999999993</t>
+  </si>
+  <si>
+    <t>0.36</t>
+  </si>
+  <si>
+    <t>102.2 - y_1</t>
+  </si>
+  <si>
+    <t>-102.2</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.41</t>
-  </si>
-  <si>
-    <t>-5.5</t>
-  </si>
-  <si>
-    <t>-5.1</t>
-  </si>
-  <si>
-    <t>-2.05 - y_2</t>
-  </si>
-  <si>
-    <t>-2.05</t>
+    <t>0.49</t>
+  </si>
+  <si>
+    <t>-0.2 - y_2</t>
+  </si>
+  <si>
+    <t>-0.2</t>
   </si>
   <si>
     <t>J_Ne_L0_v</t>
   </si>
   <si>
-    <t>0.64</t>
-  </si>
-  <si>
-    <t>-9.8</t>
-  </si>
-  <si>
-    <t>-8.5</t>
+    <t>0.75</t>
+  </si>
+  <si>
+    <t>-2.4</t>
+  </si>
+  <si>
+    <t>-5.300000000000001</t>
   </si>
   <si>
     <t>x_1</t>
@@ -144,40 +132,37 @@
     <t>y_2</t>
   </si>
   <si>
-    <t>52.150000000000006</t>
-  </si>
-  <si>
-    <t>20.25</t>
-  </si>
-  <si>
-    <t>104.6</t>
-  </si>
-  <si>
-    <t>2.05</t>
+    <t>51.550000000000004</t>
+  </si>
+  <si>
+    <t>18.099999999999998</t>
+  </si>
+  <si>
+    <t>102.2</t>
+  </si>
+  <si>
+    <t>0.2</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>3.64</t>
-  </si>
-  <si>
-    <t>-0.050000000000000044</t>
+    <t>3.57</t>
+  </si>
+  <si>
+    <t>0.31000000000000005</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>-4.8999999999999995</t>
-  </si>
-  <si>
-    <t>19.7</t>
-  </si>
-  <si>
-    <t>-6.0</t>
-  </si>
-  <si>
-    <t>-16.7</t>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>-1.0</t>
+  </si>
+  <si>
+    <t>-0.5</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -631,24 +616,24 @@
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
         <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
         <v>15</v>
@@ -656,42 +641,42 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
         <v>21</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
         <v>27</v>
       </c>
-      <c r="B5" t="s">
+      <c r="F5" t="s">
         <v>28</v>
-      </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -709,30 +694,30 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -750,17 +735,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -778,27 +763,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -816,7 +801,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:1">
